--- a/docs/ControlUnit.xlsx
+++ b/docs/ControlUnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ar-kak-tecture\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2934E6-3021-4DFB-BF10-733A5C3EE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA1EE7-42B4-43AF-8300-590EE79F264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{447A83B7-4152-47C5-88BB-EC7BDAAC407E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Operation</t>
   </si>
@@ -73,18 +73,9 @@
     <t>MemWrite</t>
   </si>
   <si>
-    <t>ALUSrc</t>
-  </si>
-  <si>
     <t>RegWrite</t>
   </si>
   <si>
-    <t>RegDst</t>
-  </si>
-  <si>
-    <t>ALUOp</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOV </t>
   </si>
   <si>
@@ -139,17 +130,23 @@
     <t>RTI </t>
   </si>
   <si>
-    <t>for ALUop we need a shakehand with the ALU design</t>
-  </si>
-  <si>
     <t>Input(MS 5bits of instruction)</t>
+  </si>
+  <si>
+    <t>BranchMode</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>FnJMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,15 +183,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,14 +221,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -535,17 +519,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -746,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,9 +734,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -791,155 +761,152 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1257,41 +1224,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863D9F2E-3046-43D5-AEC9-F47A16CDC614}">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
     <col min="2" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="14" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7" max="13" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="2" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="57" t="s">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
+      <c r="Q1"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -1313,39 +1281,36 @@
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="44" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="L2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1367,7 +1332,7 @@
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5">
@@ -1382,42 +1347,31 @@
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="30">
-        <v>0</v>
-      </c>
-      <c r="I3" s="30">
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
-        <v>0</v>
-      </c>
-      <c r="K3" s="30">
-        <v>0</v>
-      </c>
-      <c r="L3" s="30">
-        <v>0</v>
-      </c>
-      <c r="M3" s="30">
-        <v>0</v>
-      </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38">
+        <v>0</v>
+      </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -1433,7 +1387,7 @@
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
@@ -1448,40 +1402,31 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="32">
-        <v>1</v>
-      </c>
-      <c r="G4" s="27">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
-        <v>0</v>
-      </c>
-      <c r="K4" s="30">
-        <v>0</v>
-      </c>
-      <c r="L4" s="30">
-        <v>0</v>
-      </c>
-      <c r="M4" s="30">
-        <v>0</v>
-      </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="39">
+        <v>0</v>
+      </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -1497,7 +1442,7 @@
       <c r="AJ4" s="1"/>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
@@ -1512,40 +1457,31 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="32">
-        <v>0</v>
-      </c>
-      <c r="G5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
-        <v>0</v>
-      </c>
-      <c r="K5" s="30">
-        <v>0</v>
-      </c>
-      <c r="L5" s="30">
-        <v>0</v>
-      </c>
-      <c r="M5" s="30">
-        <v>0</v>
-      </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22">
+        <v>0</v>
+      </c>
+      <c r="N5" s="39">
+        <v>0</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1561,7 +1497,7 @@
       <c r="AJ5" s="1"/>
     </row>
     <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
@@ -1576,34 +1512,31 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="32">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <v>0</v>
-      </c>
-      <c r="K6" s="30">
-        <v>0</v>
-      </c>
-      <c r="L6" s="30">
-        <v>1</v>
-      </c>
-      <c r="M6" s="30">
-        <v>1</v>
-      </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="39">
+        <v>0</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1625,7 +1558,7 @@
       <c r="AJ6" s="1"/>
     </row>
     <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5">
@@ -1640,34 +1573,31 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="32">
-        <v>0</v>
-      </c>
-      <c r="G7" s="27">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0</v>
-      </c>
-      <c r="L7" s="30">
-        <v>1</v>
-      </c>
-      <c r="M7" s="30">
-        <v>1</v>
-      </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="39">
+        <v>0</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1689,7 +1619,7 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5">
@@ -1704,34 +1634,31 @@
       <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="32">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
-        <v>0</v>
-      </c>
-      <c r="L8" s="30">
-        <v>0</v>
-      </c>
-      <c r="M8" s="30">
-        <v>1</v>
-      </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="39">
+        <v>0</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1753,863 +1680,859 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="34">
-        <v>0</v>
-      </c>
-      <c r="C9" s="34">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34">
-        <v>1</v>
-      </c>
-      <c r="E9" s="34">
-        <v>1</v>
-      </c>
-      <c r="F9" s="35">
-        <v>0</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0</v>
-      </c>
-      <c r="H9" s="29">
-        <v>0</v>
-      </c>
-      <c r="I9" s="29">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29">
-        <v>0</v>
-      </c>
-      <c r="K9" s="29">
-        <v>0</v>
-      </c>
-      <c r="L9" s="29">
-        <v>1</v>
-      </c>
-      <c r="M9" s="29">
-        <v>1</v>
-      </c>
-      <c r="N9" s="50"/>
+      <c r="B9" s="26">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21">
+        <v>0</v>
+      </c>
+      <c r="N9" s="40">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="33">
+        <v>1</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
+      <c r="N12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22">
+        <v>0</v>
+      </c>
+      <c r="N13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="41">
-        <v>1</v>
-      </c>
-      <c r="D11" s="41">
-        <v>0</v>
-      </c>
-      <c r="E11" s="41">
-        <v>0</v>
-      </c>
-      <c r="F11" s="41">
-        <v>0</v>
-      </c>
-      <c r="G11" s="27">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30">
-        <v>0</v>
-      </c>
-      <c r="L11" s="30">
-        <v>1</v>
-      </c>
-      <c r="M11" s="30">
-        <v>1</v>
-      </c>
-      <c r="N11" s="49"/>
-    </row>
-    <row r="12" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
+      <c r="N14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="31">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>0</v>
-      </c>
-      <c r="J12" s="30">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30">
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
-        <v>1</v>
-      </c>
-      <c r="M12" s="30">
-        <v>1</v>
-      </c>
-      <c r="N12" s="49"/>
-    </row>
-    <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="B15" s="29">
+        <v>0</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30">
+        <v>1</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <v>1</v>
+      </c>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22">
+        <v>0</v>
+      </c>
+      <c r="N15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="63"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="31">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
-        <v>1</v>
-      </c>
-      <c r="M13" s="30">
-        <v>1</v>
-      </c>
-      <c r="N13" s="49"/>
-    </row>
-    <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0</v>
+      </c>
+      <c r="K17" s="22">
+        <v>0</v>
+      </c>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22">
+        <v>0</v>
+      </c>
+      <c r="N17" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="31">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0</v>
-      </c>
-      <c r="I14" s="30">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30">
-        <v>0</v>
-      </c>
-      <c r="K14" s="30">
-        <v>0</v>
-      </c>
-      <c r="L14" s="23">
-        <v>1</v>
-      </c>
-      <c r="M14" s="30">
-        <v>1</v>
-      </c>
-      <c r="N14" s="49"/>
-    </row>
-    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22">
+        <v>1</v>
+      </c>
+      <c r="N18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="37">
-        <v>0</v>
-      </c>
-      <c r="C15" s="38">
-        <v>1</v>
-      </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
-        <v>0</v>
-      </c>
-      <c r="F15" s="38">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
-        <v>0</v>
-      </c>
-      <c r="I15" s="30">
-        <v>0</v>
-      </c>
-      <c r="J15" s="30">
-        <v>0</v>
-      </c>
-      <c r="K15" s="28">
-        <v>1</v>
-      </c>
-      <c r="L15" s="28">
-        <v>1</v>
-      </c>
-      <c r="M15" s="30">
-        <v>1</v>
-      </c>
-      <c r="N15" s="49"/>
-    </row>
-    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="53"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1</v>
+      </c>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22">
+        <v>0</v>
+      </c>
+      <c r="N19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="32">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30">
-        <v>0</v>
-      </c>
-      <c r="I17" s="30">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30">
-        <v>0</v>
-      </c>
-      <c r="K17" s="30">
-        <v>0</v>
-      </c>
-      <c r="L17" s="30">
-        <v>0</v>
-      </c>
-      <c r="M17" s="30">
-        <v>1</v>
-      </c>
-      <c r="N17" s="48"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1</v>
+      </c>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22">
+        <v>0</v>
+      </c>
+      <c r="N20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="32">
-        <v>1</v>
-      </c>
-      <c r="G18" s="31">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23">
-        <v>0</v>
-      </c>
-      <c r="I18" s="23">
-        <v>0</v>
-      </c>
-      <c r="J18" s="23">
-        <v>0</v>
-      </c>
-      <c r="K18" s="23">
-        <v>0</v>
-      </c>
-      <c r="L18" s="23">
-        <v>1</v>
-      </c>
-      <c r="M18" s="30">
-        <v>1</v>
-      </c>
-      <c r="N18" s="49"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="B21" s="32">
+        <v>1</v>
+      </c>
+      <c r="C21" s="32">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <v>1</v>
+      </c>
+      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20">
+        <v>0</v>
+      </c>
+      <c r="N21" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="63"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="32">
-        <v>0</v>
-      </c>
-      <c r="G19" s="31">
-        <v>0</v>
-      </c>
-      <c r="H19" s="23">
-        <v>0</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0</v>
-      </c>
-      <c r="J19" s="23">
-        <v>0</v>
-      </c>
-      <c r="K19" s="23">
-        <v>1</v>
-      </c>
-      <c r="L19" s="23">
-        <v>1</v>
-      </c>
-      <c r="M19" s="30">
-        <v>1</v>
-      </c>
-      <c r="N19" s="49"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <v>0</v>
+      </c>
+      <c r="K23" s="22">
+        <v>0</v>
+      </c>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22">
+        <v>0</v>
+      </c>
+      <c r="N23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="32">
-        <v>1</v>
-      </c>
-      <c r="G20" s="31">
-        <v>0</v>
-      </c>
-      <c r="H20" s="23">
-        <v>1</v>
-      </c>
-      <c r="I20" s="23">
-        <v>1</v>
-      </c>
-      <c r="J20" s="23">
-        <v>0</v>
-      </c>
-      <c r="K20" s="23">
-        <v>1</v>
-      </c>
-      <c r="L20" s="23">
-        <v>1</v>
-      </c>
-      <c r="M20" s="30">
-        <v>1</v>
-      </c>
-      <c r="N20" s="49"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="39" t="s">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23">
+        <v>1</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <v>0</v>
+      </c>
+      <c r="K24" s="22">
+        <v>0</v>
+      </c>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22">
+        <v>0</v>
+      </c>
+      <c r="N24" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="40">
-        <v>1</v>
-      </c>
-      <c r="C21" s="40">
-        <v>0</v>
-      </c>
-      <c r="D21" s="34">
-        <v>1</v>
-      </c>
-      <c r="E21" s="34">
-        <v>0</v>
-      </c>
-      <c r="F21" s="35">
-        <v>0</v>
-      </c>
-      <c r="G21" s="24">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28">
-        <v>0</v>
-      </c>
-      <c r="I21" s="28">
-        <v>0</v>
-      </c>
-      <c r="J21" s="28">
-        <v>1</v>
-      </c>
-      <c r="K21" s="28">
-        <v>1</v>
-      </c>
-      <c r="L21" s="28">
-        <v>0</v>
-      </c>
-      <c r="M21" s="28">
-        <v>0</v>
-      </c>
-      <c r="N21" s="49"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="42" t="s">
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="23">
+        <v>1</v>
+      </c>
+      <c r="H25" s="22">
+        <v>0</v>
+      </c>
+      <c r="I25" s="22">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <v>0</v>
+      </c>
+      <c r="K25" s="22">
+        <v>0</v>
+      </c>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22">
+        <v>0</v>
+      </c>
+      <c r="N25" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="32">
-        <v>1</v>
-      </c>
-      <c r="D23" s="32">
-        <v>0</v>
-      </c>
-      <c r="E23" s="32">
-        <v>0</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0</v>
-      </c>
-      <c r="G23" s="27">
-        <v>1</v>
-      </c>
-      <c r="H23" s="30">
-        <v>0</v>
-      </c>
-      <c r="I23" s="30">
-        <v>0</v>
-      </c>
-      <c r="J23" s="30">
-        <v>0</v>
-      </c>
-      <c r="K23" s="30">
-        <v>0</v>
-      </c>
-      <c r="L23" s="30">
-        <v>0</v>
-      </c>
-      <c r="M23" s="30">
-        <v>1</v>
-      </c>
-      <c r="N23" s="48"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="23">
+        <v>1</v>
+      </c>
+      <c r="H26" s="22">
+        <v>0</v>
+      </c>
+      <c r="I26" s="22">
+        <v>0</v>
+      </c>
+      <c r="J26" s="22">
+        <v>0</v>
+      </c>
+      <c r="K26" s="22">
+        <v>0</v>
+      </c>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22">
+        <v>0</v>
+      </c>
+      <c r="N26" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13">
-        <v>0</v>
-      </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
-        <v>1</v>
-      </c>
-      <c r="G24" s="31">
-        <v>1</v>
-      </c>
-      <c r="H24" s="30">
-        <v>0</v>
-      </c>
-      <c r="I24" s="30">
-        <v>0</v>
-      </c>
-      <c r="J24" s="30">
-        <v>0</v>
-      </c>
-      <c r="K24" s="30">
-        <v>0</v>
-      </c>
-      <c r="L24" s="30">
-        <v>0</v>
-      </c>
-      <c r="M24" s="30">
-        <v>1</v>
-      </c>
-      <c r="N24" s="49"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23">
+        <v>1</v>
+      </c>
+      <c r="H27" s="22">
+        <v>0</v>
+      </c>
+      <c r="I27" s="22">
+        <v>0</v>
+      </c>
+      <c r="J27" s="22">
+        <v>0</v>
+      </c>
+      <c r="K27" s="22">
+        <v>0</v>
+      </c>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22">
+        <v>0</v>
+      </c>
+      <c r="N27" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="13">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0</v>
-      </c>
-      <c r="G25" s="31">
-        <v>1</v>
-      </c>
-      <c r="H25" s="30">
-        <v>0</v>
-      </c>
-      <c r="I25" s="30">
-        <v>0</v>
-      </c>
-      <c r="J25" s="30">
-        <v>0</v>
-      </c>
-      <c r="K25" s="30">
-        <v>0</v>
-      </c>
-      <c r="L25" s="30">
-        <v>0</v>
-      </c>
-      <c r="M25" s="30">
-        <v>1</v>
-      </c>
-      <c r="N25" s="49"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="23">
+        <v>1</v>
+      </c>
+      <c r="H28" s="22">
+        <v>0</v>
+      </c>
+      <c r="I28" s="22">
+        <v>0</v>
+      </c>
+      <c r="J28" s="22">
+        <v>0</v>
+      </c>
+      <c r="K28" s="22">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15">
+        <v>1</v>
+      </c>
+      <c r="N28" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0</v>
-      </c>
-      <c r="E26" s="13">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="31">
-        <v>1</v>
-      </c>
-      <c r="H26" s="30">
-        <v>0</v>
-      </c>
-      <c r="I26" s="30">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30">
-        <v>0</v>
-      </c>
-      <c r="K26" s="30">
-        <v>0</v>
-      </c>
-      <c r="L26" s="30">
-        <v>0</v>
-      </c>
-      <c r="M26" s="30">
-        <v>1</v>
-      </c>
-      <c r="N26" s="49"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="21">
+        <v>1</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0</v>
+      </c>
+      <c r="J29" s="21">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22">
+        <v>0</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20">
+        <v>0</v>
+      </c>
+      <c r="N29" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="13">
-        <v>1</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
-        <v>0</v>
-      </c>
-      <c r="G27" s="31">
-        <v>1</v>
-      </c>
-      <c r="H27" s="30">
-        <v>0</v>
-      </c>
-      <c r="I27" s="30">
-        <v>0</v>
-      </c>
-      <c r="J27" s="30">
-        <v>0</v>
-      </c>
-      <c r="K27" s="30">
-        <v>0</v>
-      </c>
-      <c r="L27" s="30">
-        <v>0</v>
-      </c>
-      <c r="M27" s="30">
-        <v>1</v>
-      </c>
-      <c r="N27" s="49"/>
-    </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1</v>
-      </c>
-      <c r="G28" s="31">
-        <v>1</v>
-      </c>
-      <c r="H28" s="30">
-        <v>0</v>
-      </c>
-      <c r="I28" s="30">
-        <v>0</v>
-      </c>
-      <c r="J28" s="30">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30">
-        <v>0</v>
-      </c>
-      <c r="L28" s="30">
-        <v>0</v>
-      </c>
-      <c r="M28" s="23">
-        <v>0</v>
-      </c>
-      <c r="N28" s="49"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13">
-        <v>1</v>
-      </c>
-      <c r="E29" s="13">
-        <v>1</v>
-      </c>
-      <c r="F29" s="60">
-        <v>0</v>
-      </c>
-      <c r="G29" s="24">
-        <v>1</v>
-      </c>
-      <c r="H29" s="29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="29">
-        <v>0</v>
-      </c>
-      <c r="K29" s="28">
-        <v>1</v>
-      </c>
-      <c r="L29" s="30">
-        <v>0</v>
-      </c>
-      <c r="M29" s="28">
-        <v>0</v>
-      </c>
-      <c r="N29" s="50"/>
-    </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="62">
-        <v>1</v>
-      </c>
-      <c r="C30" s="63">
-        <v>1</v>
-      </c>
-      <c r="D30" s="63">
-        <v>1</v>
-      </c>
-      <c r="E30" s="64">
-        <v>1</v>
-      </c>
-      <c r="F30" s="65">
-        <v>1</v>
-      </c>
-      <c r="G30" s="47">
-        <v>1</v>
-      </c>
-      <c r="H30" s="56">
-        <v>0</v>
-      </c>
-      <c r="I30" s="56">
-        <v>0</v>
-      </c>
-      <c r="J30" s="56">
-        <v>0</v>
-      </c>
-      <c r="K30" s="56">
-        <v>0</v>
-      </c>
-      <c r="L30" s="56">
-        <v>0</v>
-      </c>
-      <c r="M30" s="46">
-        <v>0</v>
-      </c>
-      <c r="N30" s="55"/>
+      <c r="B30" s="46">
+        <v>1</v>
+      </c>
+      <c r="C30" s="47">
+        <v>1</v>
+      </c>
+      <c r="D30" s="47">
+        <v>1</v>
+      </c>
+      <c r="E30" s="48">
+        <v>1</v>
+      </c>
+      <c r="F30" s="49">
+        <v>1</v>
+      </c>
+      <c r="G30" s="37">
+        <v>1</v>
+      </c>
+      <c r="H30" s="43">
+        <v>0</v>
+      </c>
+      <c r="I30" s="43">
+        <v>0</v>
+      </c>
+      <c r="J30" s="43">
+        <v>0</v>
+      </c>
+      <c r="K30" s="43">
+        <v>0</v>
+      </c>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43">
+        <v>1</v>
+      </c>
+      <c r="N30" s="42">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="25"/>
+      <c r="G31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="P3:W5"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:N1"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A16:N16"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="B1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/ControlUnit.xlsx
+++ b/docs/ControlUnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ar-kak-tecture\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA1EE7-42B4-43AF-8300-590EE79F264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66FEA70-6238-4FBB-8664-48EE146E981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{447A83B7-4152-47C5-88BB-EC7BDAAC407E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Operation</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Outputs</t>
   </si>
   <si>
-    <t>Branch</t>
-  </si>
-  <si>
     <t>MemRead</t>
   </si>
   <si>
@@ -133,13 +130,38 @@
     <t>Input(MS 5bits of instruction)</t>
   </si>
   <si>
-    <t>BranchMode</t>
-  </si>
-  <si>
     <t>Pop</t>
   </si>
   <si>
     <t>FnJMP</t>
+  </si>
+  <si>
+    <t>ExceptionSignal</t>
+  </si>
+  <si>
+    <t>FlushEx</t>
+  </si>
+  <si>
+    <t>FlushDec</t>
+  </si>
+  <si>
+    <t>StackEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlushDecode Signal of the Control Unit is the same Flush Fitch/Decode Signal
+</t>
+  </si>
+  <si>
+    <t>ALUEX</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Fitch/Decode Signa</t>
   </si>
 </sst>
 </file>
@@ -184,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -419,7 +447,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -430,7 +460,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -439,61 +471,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -516,19 +500,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -617,21 +588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -702,11 +658,18 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color theme="1"/>
       </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color theme="1"/>
       </top>
@@ -715,11 +678,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,25 +756,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,9 +771,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -809,7 +780,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,44 +798,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -878,35 +864,101 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,45 +1277,51 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
     <col min="2" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="13" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8" max="13" width="12.77734375" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.77734375" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.77734375" customWidth="1"/>
+    <col min="18" max="18" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="2" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="52" t="s">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
-      <c r="Q1"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="N1" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="55"/>
+      <c r="P1" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="75"/>
+      <c r="S1"/>
+      <c r="T1"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -1280,43 +1338,49 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="36" t="s">
+    <row r="2" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="R2" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -1347,31 +1411,40 @@
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22">
-        <v>0</v>
-      </c>
-      <c r="N3" s="38">
-        <v>0</v>
-      </c>
+      <c r="F3" s="56">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="70">
+        <v>0</v>
+      </c>
+      <c r="R3" s="70"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -1402,31 +1475,40 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="24">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22">
-        <v>0</v>
-      </c>
-      <c r="N4" s="39">
-        <v>0</v>
-      </c>
+      <c r="F4" s="57">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="32">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="70">
+        <v>0</v>
+      </c>
+      <c r="R4" s="70"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -1457,31 +1539,40 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="24">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="39">
-        <v>0</v>
-      </c>
+      <c r="F5" s="57">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="70">
+        <v>1</v>
+      </c>
+      <c r="R5" s="70"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1512,37 +1603,40 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="24">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0</v>
-      </c>
-      <c r="I6" s="22">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1</v>
-      </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22">
-        <v>0</v>
-      </c>
-      <c r="N6" s="39">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="F6" s="57">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="64">
+        <v>1</v>
+      </c>
+      <c r="O6" s="65">
+        <v>1</v>
+      </c>
+      <c r="P6" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="71"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -1573,37 +1667,28 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="24">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22">
-        <v>1</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22">
-        <v>0</v>
-      </c>
-      <c r="N7" s="39">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="F7" s="57">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="32">
+        <v>0</v>
+      </c>
+      <c r="P7"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -1634,37 +1719,27 @@
       <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="24">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22">
-        <v>0</v>
-      </c>
-      <c r="N8" s="39">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="F8" s="57">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -1680,108 +1755,98 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26">
-        <v>0</v>
-      </c>
-      <c r="C9" s="26">
-        <v>0</v>
-      </c>
-      <c r="D9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="26">
-        <v>1</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21">
-        <v>0</v>
-      </c>
-      <c r="K9" s="21">
-        <v>1</v>
-      </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21">
-        <v>0</v>
-      </c>
-      <c r="N9" s="40">
+      <c r="B9" s="21">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="63"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7">
         <v>0</v>
       </c>
-      <c r="C11" s="33">
-        <v>1</v>
-      </c>
-      <c r="D11" s="33">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22">
-        <v>0</v>
-      </c>
-      <c r="N11" s="39">
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="59">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
@@ -1795,35 +1860,38 @@
       <c r="E12" s="11">
         <v>0</v>
       </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0</v>
-      </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
-        <v>1</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22">
-        <v>0</v>
-      </c>
-      <c r="N12" s="39">
-        <v>0</v>
-      </c>
+      <c r="F12" s="60">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="78"/>
     </row>
     <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
@@ -1837,702 +1905,645 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22">
-        <v>0</v>
-      </c>
-      <c r="N13" s="39">
-        <v>0</v>
-      </c>
+      <c r="F13" s="60">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="79"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="81"/>
     </row>
     <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="60">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="82"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="84"/>
+    </row>
+    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <v>1</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22">
-        <v>0</v>
-      </c>
-      <c r="N14" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
+      <c r="B15" s="23">
+        <v>0</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>1</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="29">
-        <v>0</v>
-      </c>
-      <c r="C15" s="30">
-        <v>1</v>
-      </c>
-      <c r="D15" s="30">
-        <v>1</v>
-      </c>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0</v>
-      </c>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20">
-        <v>1</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22">
-        <v>0</v>
-      </c>
-      <c r="N15" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="63"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0</v>
+      </c>
+      <c r="L17" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22">
-        <v>0</v>
-      </c>
-      <c r="K17" s="22">
-        <v>0</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22">
-        <v>0</v>
-      </c>
-      <c r="N17" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="57">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>1</v>
+      </c>
+      <c r="K18" s="18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="24">
-        <v>1</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>1</v>
-      </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22">
-        <v>1</v>
-      </c>
-      <c r="N18" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="57">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>1</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+      <c r="L19" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="24">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15">
-        <v>0</v>
-      </c>
-      <c r="K19" s="15">
-        <v>1</v>
-      </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22">
-        <v>0</v>
-      </c>
-      <c r="N19" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="57">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>1</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+      <c r="L20" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="24">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>1</v>
-      </c>
-      <c r="I20" s="15">
-        <v>1</v>
-      </c>
-      <c r="J20" s="15">
-        <v>0</v>
-      </c>
-      <c r="K20" s="15">
-        <v>1</v>
-      </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22">
-        <v>0</v>
-      </c>
-      <c r="N20" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31" t="s">
+      <c r="B21" s="26">
+        <v>1</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="58">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="32">
-        <v>1</v>
-      </c>
-      <c r="C21" s="32">
-        <v>0</v>
-      </c>
-      <c r="D21" s="26">
-        <v>1</v>
-      </c>
-      <c r="E21" s="26">
-        <v>0</v>
-      </c>
-      <c r="F21" s="27">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="20">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20">
-        <v>0</v>
-      </c>
-      <c r="J21" s="20">
-        <v>1</v>
-      </c>
-      <c r="K21" s="20">
-        <v>0</v>
-      </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20">
-        <v>0</v>
-      </c>
-      <c r="N21" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="63"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="57">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
+      <c r="L23" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="24">
-        <v>1</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0</v>
-      </c>
-      <c r="E23" s="24">
-        <v>0</v>
-      </c>
-      <c r="F23" s="24">
-        <v>0</v>
-      </c>
-      <c r="G23" s="19">
-        <v>1</v>
-      </c>
-      <c r="H23" s="22">
-        <v>0</v>
-      </c>
-      <c r="I23" s="22">
-        <v>0</v>
-      </c>
-      <c r="J23" s="22">
-        <v>0</v>
-      </c>
-      <c r="K23" s="22">
-        <v>0</v>
-      </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22">
-        <v>0</v>
-      </c>
-      <c r="N23" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="56">
+        <v>1</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
+      <c r="K24" s="18">
+        <v>0</v>
+      </c>
+      <c r="L24" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="12">
-        <v>1</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1</v>
-      </c>
-      <c r="G24" s="23">
-        <v>1</v>
-      </c>
-      <c r="H24" s="22">
-        <v>0</v>
-      </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-      <c r="J24" s="22">
-        <v>0</v>
-      </c>
-      <c r="K24" s="22">
-        <v>0</v>
-      </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22">
-        <v>0</v>
-      </c>
-      <c r="N24" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="56">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
+      <c r="K25" s="18">
+        <v>0</v>
+      </c>
+      <c r="L25" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
-        <v>1</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0</v>
-      </c>
-      <c r="G25" s="23">
-        <v>1</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
-        <v>0</v>
-      </c>
-      <c r="K25" s="22">
-        <v>0</v>
-      </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22">
-        <v>0</v>
-      </c>
-      <c r="N25" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="56">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0</v>
+      </c>
+      <c r="L26" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12">
-        <v>1</v>
-      </c>
-      <c r="G26" s="23">
-        <v>1</v>
-      </c>
-      <c r="H26" s="22">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-      <c r="J26" s="22">
-        <v>0</v>
-      </c>
-      <c r="K26" s="22">
-        <v>0</v>
-      </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22">
-        <v>0</v>
-      </c>
-      <c r="N26" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="56">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0</v>
+      </c>
+      <c r="L27" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12">
-        <v>1</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="23">
-        <v>1</v>
-      </c>
-      <c r="H27" s="22">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22">
-        <v>0</v>
-      </c>
-      <c r="J27" s="22">
-        <v>0</v>
-      </c>
-      <c r="K27" s="22">
-        <v>0</v>
-      </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22">
-        <v>0</v>
-      </c>
-      <c r="N27" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="56">
+        <v>1</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1</v>
+      </c>
+      <c r="L28" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12">
-        <v>1</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
-      <c r="F28" s="12">
-        <v>1</v>
-      </c>
-      <c r="G28" s="23">
-        <v>1</v>
-      </c>
-      <c r="H28" s="22">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22">
-        <v>0</v>
-      </c>
-      <c r="J28" s="22">
-        <v>0</v>
-      </c>
-      <c r="K28" s="22">
-        <v>0</v>
-      </c>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15">
-        <v>1</v>
-      </c>
-      <c r="N28" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="62">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12">
-        <v>1</v>
-      </c>
-      <c r="F29" s="44">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <v>1</v>
-      </c>
-      <c r="H29" s="21">
-        <v>1</v>
-      </c>
-      <c r="I29" s="21">
-        <v>0</v>
-      </c>
-      <c r="J29" s="21">
-        <v>0</v>
-      </c>
-      <c r="K29" s="22">
-        <v>0</v>
-      </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20">
-        <v>0</v>
-      </c>
-      <c r="N29" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="46">
-        <v>1</v>
-      </c>
-      <c r="C30" s="47">
-        <v>1</v>
-      </c>
-      <c r="D30" s="47">
-        <v>1</v>
-      </c>
-      <c r="E30" s="48">
-        <v>1</v>
-      </c>
-      <c r="F30" s="49">
-        <v>1</v>
-      </c>
-      <c r="G30" s="37">
-        <v>1</v>
-      </c>
-      <c r="H30" s="43">
-        <v>0</v>
-      </c>
-      <c r="I30" s="43">
-        <v>0</v>
-      </c>
-      <c r="J30" s="43">
-        <v>0</v>
-      </c>
-      <c r="K30" s="43">
-        <v>0</v>
-      </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43">
-        <v>1</v>
-      </c>
-      <c r="N30" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="17"/>
-    </row>
+      <c r="B30" s="37">
+        <v>1</v>
+      </c>
+      <c r="C30" s="38">
+        <v>1</v>
+      </c>
+      <c r="D30" s="38">
+        <v>1</v>
+      </c>
+      <c r="E30" s="39">
+        <v>1</v>
+      </c>
+      <c r="F30" s="63">
+        <v>1</v>
+      </c>
+      <c r="G30" s="35">
+        <v>0</v>
+      </c>
+      <c r="H30" s="35">
+        <v>0</v>
+      </c>
+      <c r="I30" s="35">
+        <v>0</v>
+      </c>
+      <c r="J30" s="35">
+        <v>0</v>
+      </c>
+      <c r="K30" s="35">
+        <v>1</v>
+      </c>
+      <c r="L30" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="N12:R14"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/ControlUnit.xlsx
+++ b/docs/ControlUnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ar-kak-tecture\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66FEA70-6238-4FBB-8664-48EE146E981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0C600F-02C5-49C5-90DA-2DEDB5DEDCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{447A83B7-4152-47C5-88BB-EC7BDAAC407E}"/>
   </bookViews>
@@ -834,22 +834,55 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,57 +906,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,6 +941,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,33 +1293,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="2" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="51" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="64"/>
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="73" t="s">
+      <c r="O1" s="66"/>
+      <c r="P1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="75"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="V1" s="3"/>
@@ -1339,12 +1339,12 @@
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1363,19 +1363,19 @@
       <c r="L2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="56" t="s">
         <v>42</v>
       </c>
       <c r="S2" t="s">
@@ -1411,7 +1411,7 @@
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="43">
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -1438,13 +1438,13 @@
       <c r="O3" s="12">
         <v>0</v>
       </c>
-      <c r="P3" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="70">
-        <v>0</v>
-      </c>
-      <c r="R3" s="70"/>
+      <c r="P3" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="57">
+        <v>0</v>
+      </c>
+      <c r="R3" s="57"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -1475,7 +1475,7 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="44">
         <v>1</v>
       </c>
       <c r="G4" s="18">
@@ -1502,13 +1502,13 @@
       <c r="O4" s="12">
         <v>1</v>
       </c>
-      <c r="P4" s="70">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="70">
-        <v>0</v>
-      </c>
-      <c r="R4" s="70"/>
+      <c r="P4" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="57">
+        <v>0</v>
+      </c>
+      <c r="R4" s="57"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -1539,7 +1539,7 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="44">
         <v>0</v>
       </c>
       <c r="G5" s="18">
@@ -1566,13 +1566,13 @@
       <c r="O5" s="12">
         <v>0</v>
       </c>
-      <c r="P5" s="70">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="70">
-        <v>1</v>
-      </c>
-      <c r="R5" s="70"/>
+      <c r="P5" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>1</v>
+      </c>
+      <c r="R5" s="57"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1603,7 +1603,7 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="44">
         <v>1</v>
       </c>
       <c r="G6" s="18">
@@ -1624,19 +1624,19 @@
       <c r="L6" s="32">
         <v>0</v>
       </c>
-      <c r="N6" s="64">
-        <v>1</v>
-      </c>
-      <c r="O6" s="65">
-        <v>1</v>
-      </c>
-      <c r="P6" s="67" t="s">
+      <c r="N6" s="51">
+        <v>1</v>
+      </c>
+      <c r="O6" s="52">
+        <v>1</v>
+      </c>
+      <c r="P6" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="71" t="s">
+      <c r="Q6" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="71"/>
+      <c r="R6" s="58"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -1667,7 +1667,7 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="44">
         <v>0</v>
       </c>
       <c r="G7" s="18">
@@ -1719,7 +1719,7 @@
       <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="44">
         <v>1</v>
       </c>
       <c r="G8" s="18">
@@ -1770,7 +1770,7 @@
       <c r="E9" s="21">
         <v>1</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="45">
         <v>0</v>
       </c>
       <c r="G9" s="17">
@@ -1822,7 +1822,7 @@
       <c r="E11" s="27">
         <v>0</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="46">
         <v>0</v>
       </c>
       <c r="G11" s="18">
@@ -1860,7 +1860,7 @@
       <c r="E12" s="11">
         <v>0</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="47">
         <v>1</v>
       </c>
       <c r="G12" s="18">
@@ -1881,13 +1881,13 @@
       <c r="L12" s="32">
         <v>0</v>
       </c>
-      <c r="N12" s="76" t="s">
+      <c r="N12" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="78"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="72"/>
     </row>
     <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
@@ -1905,7 +1905,7 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="47">
         <v>0</v>
       </c>
       <c r="G13" s="18">
@@ -1926,11 +1926,11 @@
       <c r="L13" s="32">
         <v>0</v>
       </c>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="81"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="75"/>
     </row>
     <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
@@ -1948,7 +1948,7 @@
       <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="47">
         <v>1</v>
       </c>
       <c r="G14" s="18">
@@ -1969,11 +1969,11 @@
       <c r="L14" s="32">
         <v>0</v>
       </c>
-      <c r="N14" s="82"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="84"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="78"/>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
@@ -1991,7 +1991,7 @@
       <c r="E15" s="24">
         <v>0</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="48">
         <v>0</v>
       </c>
       <c r="G15" s="18">
@@ -2043,7 +2043,7 @@
       <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="44">
         <v>0</v>
       </c>
       <c r="G17" s="18">
@@ -2081,7 +2081,7 @@
       <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="44">
         <v>1</v>
       </c>
       <c r="G18" s="15">
@@ -2119,7 +2119,7 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="44">
         <v>0</v>
       </c>
       <c r="G19" s="15">
@@ -2157,7 +2157,7 @@
       <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="44">
         <v>1</v>
       </c>
       <c r="G20" s="15">
@@ -2195,7 +2195,7 @@
       <c r="E21" s="21">
         <v>0</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="45">
         <v>0</v>
       </c>
       <c r="G21" s="16">
@@ -2247,7 +2247,7 @@
       <c r="E23" s="19">
         <v>0</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="44">
         <v>0</v>
       </c>
       <c r="G23" s="18">
@@ -2285,7 +2285,7 @@
       <c r="E24" s="12">
         <v>0</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="43">
         <v>1</v>
       </c>
       <c r="G24" s="18">
@@ -2323,7 +2323,7 @@
       <c r="E25" s="12">
         <v>1</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="43">
         <v>0</v>
       </c>
       <c r="G25" s="18">
@@ -2361,7 +2361,7 @@
       <c r="E26" s="12">
         <v>1</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="43">
         <v>1</v>
       </c>
       <c r="G26" s="18">
@@ -2399,7 +2399,7 @@
       <c r="E27" s="12">
         <v>0</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="43">
         <v>0</v>
       </c>
       <c r="G27" s="18">
@@ -2437,7 +2437,7 @@
       <c r="E28" s="12">
         <v>0</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="43">
         <v>1</v>
       </c>
       <c r="G28" s="18">
@@ -2475,7 +2475,7 @@
       <c r="E29" s="12">
         <v>1</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="49">
         <v>0</v>
       </c>
       <c r="G29" s="17">
@@ -2513,7 +2513,7 @@
       <c r="E30" s="39">
         <v>1</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="50">
         <v>1</v>
       </c>
       <c r="G30" s="35">
@@ -2538,12 +2538,12 @@
     <row r="31" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="N12:R14"/>
     <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/ControlUnit.xlsx
+++ b/docs/ControlUnit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ar-kak-tecture\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0C600F-02C5-49C5-90DA-2DEDB5DEDCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6271E955-A253-4700-917E-1DC59C57AA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{447A83B7-4152-47C5-88BB-EC7BDAAC407E}"/>
   </bookViews>
@@ -158,10 +158,10 @@
     <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Fitch/Decode Signa</t>
+  </si>
+  <si>
+    <t>Push</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -870,19 +870,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -900,12 +900,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,47 +912,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,7 +1271,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,19 +1284,20 @@
     <col min="16" max="16" width="13.88671875" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.77734375" customWidth="1"/>
     <col min="18" max="18" width="22.44140625" customWidth="1"/>
+    <col min="21" max="21" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="2" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71"/>
       <c r="G1" s="62" t="s">
         <v>8</v>
       </c>
@@ -1310,20 +1305,17 @@
       <c r="I1" s="63"/>
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
-      <c r="N1" s="65" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
+      <c r="Q1" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="67" t="s">
+      <c r="R1" s="74"/>
+      <c r="S1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="69"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="67"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -1340,11 +1332,11 @@
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1360,25 +1352,25 @@
       <c r="K2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="Q2" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="R2" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="S2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="T2" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" s="55" t="s">
         <v>41</v>
       </c>
       <c r="X2" s="1"/>
@@ -1429,22 +1421,25 @@
       <c r="K3" s="18">
         <v>0</v>
       </c>
-      <c r="L3" s="32">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="57">
-        <v>0</v>
-      </c>
-      <c r="R3" s="57"/>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="58">
+        <v>0</v>
+      </c>
+      <c r="T3" s="56">
+        <v>0</v>
+      </c>
+      <c r="U3" s="56"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -1493,22 +1488,25 @@
       <c r="K4" s="18">
         <v>0</v>
       </c>
-      <c r="L4" s="32">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="57">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="57">
-        <v>0</v>
-      </c>
-      <c r="R4" s="57"/>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12">
+        <v>1</v>
+      </c>
+      <c r="S4" s="56">
+        <v>1</v>
+      </c>
+      <c r="T4" s="56">
+        <v>0</v>
+      </c>
+      <c r="U4" s="56"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -1557,22 +1555,25 @@
       <c r="K5" s="18">
         <v>0</v>
       </c>
-      <c r="L5" s="32">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12">
-        <v>1</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="57">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="57">
-        <v>1</v>
-      </c>
-      <c r="R5" s="57"/>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>1</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="56">
+        <v>1</v>
+      </c>
+      <c r="T5" s="56">
+        <v>1</v>
+      </c>
+      <c r="U5" s="56"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1621,22 +1622,25 @@
       <c r="K6" s="18">
         <v>0</v>
       </c>
-      <c r="L6" s="32">
-        <v>0</v>
-      </c>
-      <c r="N6" s="51">
-        <v>1</v>
-      </c>
-      <c r="O6" s="52">
-        <v>1</v>
-      </c>
-      <c r="P6" s="54" t="s">
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="51">
+        <v>1</v>
+      </c>
+      <c r="R6" s="52">
+        <v>1</v>
+      </c>
+      <c r="S6" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="58" t="s">
+      <c r="T6" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="58"/>
+      <c r="U6" s="57"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -1685,10 +1689,12 @@
       <c r="K7" s="18">
         <v>0</v>
       </c>
-      <c r="L7" s="32">
-        <v>0</v>
-      </c>
-      <c r="P7"/>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -1737,9 +1743,13 @@
       <c r="K8" s="18">
         <v>0</v>
       </c>
-      <c r="L8" s="32">
-        <v>0</v>
-      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -1788,9 +1798,13 @@
       <c r="K9" s="17">
         <v>0</v>
       </c>
-      <c r="L9" s="33">
-        <v>0</v>
-      </c>
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+      <c r="M9" s="33">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
@@ -1804,7 +1818,9 @@
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
@@ -1840,9 +1856,13 @@
       <c r="K11" s="18">
         <v>0</v>
       </c>
-      <c r="L11" s="32">
-        <v>0</v>
-      </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
@@ -1878,16 +1898,19 @@
       <c r="K12" s="18">
         <v>0</v>
       </c>
-      <c r="L12" s="32">
-        <v>0</v>
-      </c>
-      <c r="N12" s="70" t="s">
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="72"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="76"/>
     </row>
     <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
@@ -1923,14 +1946,17 @@
       <c r="K13" s="18">
         <v>0</v>
       </c>
-      <c r="L13" s="32">
-        <v>0</v>
-      </c>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="75"/>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="79"/>
     </row>
     <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
@@ -1966,14 +1992,17 @@
       <c r="K14" s="18">
         <v>0</v>
       </c>
-      <c r="L14" s="32">
-        <v>0</v>
-      </c>
-      <c r="N14" s="76"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="78"/>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="82"/>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
@@ -2009,7 +2038,10 @@
       <c r="K15" s="18">
         <v>0</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="32">
         <v>0</v>
       </c>
     </row>
@@ -2025,9 +2057,10 @@
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>18</v>
       </c>
@@ -2061,11 +2094,14 @@
       <c r="K17" s="18">
         <v>0</v>
       </c>
-      <c r="L17" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="18">
+        <v>1</v>
+      </c>
+      <c r="M17" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
@@ -2099,11 +2135,14 @@
       <c r="K18" s="18">
         <v>1</v>
       </c>
-      <c r="L18" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
@@ -2137,11 +2176,14 @@
       <c r="K19" s="18">
         <v>0</v>
       </c>
-      <c r="L19" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -2175,11 +2217,14 @@
       <c r="K20" s="18">
         <v>0</v>
       </c>
-      <c r="L20" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="18">
+        <v>0</v>
+      </c>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>22</v>
       </c>
@@ -2213,11 +2258,14 @@
       <c r="K21" s="16">
         <v>0</v>
       </c>
-      <c r="L21" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
@@ -2229,9 +2277,10 @@
       <c r="I22" s="41"/>
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>23</v>
       </c>
@@ -2265,11 +2314,14 @@
       <c r="K23" s="18">
         <v>0</v>
       </c>
-      <c r="L23" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="18">
+        <v>0</v>
+      </c>
+      <c r="M23" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>24</v>
       </c>
@@ -2303,11 +2355,14 @@
       <c r="K24" s="18">
         <v>0</v>
       </c>
-      <c r="L24" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>25</v>
       </c>
@@ -2341,11 +2396,14 @@
       <c r="K25" s="18">
         <v>0</v>
       </c>
-      <c r="L25" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="18">
+        <v>0</v>
+      </c>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>26</v>
       </c>
@@ -2379,11 +2437,14 @@
       <c r="K26" s="18">
         <v>0</v>
       </c>
-      <c r="L26" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L26" s="18">
+        <v>0</v>
+      </c>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>27</v>
       </c>
@@ -2417,11 +2478,14 @@
       <c r="K27" s="18">
         <v>0</v>
       </c>
-      <c r="L27" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L27" s="18">
+        <v>1</v>
+      </c>
+      <c r="M27" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>28</v>
       </c>
@@ -2455,11 +2519,14 @@
       <c r="K28" s="15">
         <v>1</v>
       </c>
-      <c r="L28" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
@@ -2493,11 +2560,14 @@
       <c r="K29" s="16">
         <v>0</v>
       </c>
-      <c r="L29" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="16">
+        <v>1</v>
+      </c>
+      <c r="M29" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="36" t="s">
         <v>30</v>
       </c>
@@ -2531,19 +2601,22 @@
       <c r="K30" s="35">
         <v>1</v>
       </c>
-      <c r="L30" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="L30" s="35">
+        <v>0</v>
+      </c>
+      <c r="M30" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="Q12:U14"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="N12:R14"/>
     <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
